--- a/Metopen/Book1.xlsx
+++ b/Metopen/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thinkin in programming\Metopen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB6AE51-EBE5-4F94-A63E-9516B00F5E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B337B16C-057A-4A8B-BE6A-FC7D5F8FE364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{252DCF02-E3DA-4351-BF14-229351A9F4F4}"/>
+    <workbookView xWindow="5340" yWindow="4470" windowWidth="21600" windowHeight="11835" xr2:uid="{252DCF02-E3DA-4351-BF14-229351A9F4F4}"/>
   </bookViews>
   <sheets>
     <sheet name="game window size" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Game window Size</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Lane Performance</t>
+  </si>
+  <si>
+    <t>Machine performance</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hald decent</t>
   </si>
 </sst>
 </file>
@@ -394,40 +406,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -744,46 +755,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A767201-1B67-409F-B7E8-39172049944F}">
-  <dimension ref="B1:L18"/>
+  <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="10"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -794,197 +800,94 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="15" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="K6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
+      <c r="L6" s="14"/>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1005,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD2674-1266-4E55-A391-814F031226B7}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/Metopen/Book1.xlsx
+++ b/Metopen/Book1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thinkin in programming\Metopen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B337B16C-057A-4A8B-BE6A-FC7D5F8FE364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC28D4-E185-41B9-9C06-5F4DBF133CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="4470" windowWidth="21600" windowHeight="11835" xr2:uid="{252DCF02-E3DA-4351-BF14-229351A9F4F4}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{252DCF02-E3DA-4351-BF14-229351A9F4F4}"/>
   </bookViews>
   <sheets>
     <sheet name="game window size" sheetId="1" r:id="rId1"/>
     <sheet name="sliding window Size" sheetId="2" r:id="rId2"/>
+    <sheet name="ROI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Game window Size</t>
   </si>
@@ -247,13 +248,612 @@
   </si>
   <si>
     <t>hald decent</t>
+  </si>
+  <si>
+    <t>coordinates</t>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>roi_points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>634</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>457</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">),   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1266</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>457</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-right</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-right</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-left</t>
+    </r>
+  </si>
+  <si>
+    <t>    ])</t>
+  </si>
+  <si>
+    <t>Screen Res</t>
+  </si>
+  <si>
+    <t>fullscreen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>roi_points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>419</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>344</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>837</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>344</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-right</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1124</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>452</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-right</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>452</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-left</t>
+    </r>
+  </si>
+  <si>
+    <t>      ])</t>
+  </si>
+  <si>
+    <t>for width": 1270, "height": 813</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +905,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -314,7 +920,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -402,11 +1008,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -440,6 +1167,62 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A767201-1B67-409F-B7E8-39172049944F}">
   <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -941,4 +1724,208 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C393B0EC-DECC-4367-BE98-AD590FB012B4}">
+  <dimension ref="B3:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="H13:I17"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H4:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Metopen/Book1.xlsx
+++ b/Metopen/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thinkin in programming\Metopen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC28D4-E185-41B9-9C06-5F4DBF133CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF0800C-5446-47BB-A0E6-39731C88EF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{252DCF02-E3DA-4351-BF14-229351A9F4F4}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11775" activeTab="2" xr2:uid="{252DCF02-E3DA-4351-BF14-229351A9F4F4}"/>
   </bookViews>
   <sheets>
     <sheet name="game window size" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Game window Size</t>
   </si>
@@ -847,6 +847,221 @@
   </si>
   <si>
     <t>for width": 1270, "height": 813</t>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>517</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-right</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>748</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>313</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-right</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>313</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-left</t>
+    </r>
+  </si>
+  <si>
+    <t>        ])</t>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>274</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-left</t>
+    </r>
+  </si>
+  <si>
+    <t>800 * 600</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>decent. Bad ford debuging</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1141,6 +1356,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1168,60 +1402,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1548,10 +1768,10 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1559,58 +1779,58 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="22"/>
       <c r="M2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="K4" s="13" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="K4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="21"/>
       <c r="M4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="K6" s="13" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="21"/>
       <c r="M6" t="s">
         <v>12</v>
       </c>
@@ -1728,194 +1948,241 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C393B0EC-DECC-4367-BE98-AD590FB012B4}">
-  <dimension ref="B3:I18"/>
+  <dimension ref="B3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="16" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="I3" s="7"/>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="30" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="36" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H4:I9"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="H13:I17"/>
     <mergeCell ref="B13:F13"/>
@@ -1923,8 +2190,6 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H4:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Metopen/Book1.xlsx
+++ b/Metopen/Book1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thinkin in programming\Metopen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF0800C-5446-47BB-A0E6-39731C88EF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98681CCC-F2F4-49BB-9D7C-30ADC719A093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11775" activeTab="2" xr2:uid="{252DCF02-E3DA-4351-BF14-229351A9F4F4}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11775" activeTab="3" xr2:uid="{252DCF02-E3DA-4351-BF14-229351A9F4F4}"/>
   </bookViews>
   <sheets>
     <sheet name="game window size" sheetId="1" r:id="rId1"/>
     <sheet name="sliding window Size" sheetId="2" r:id="rId2"/>
     <sheet name="ROI" sheetId="3" r:id="rId3"/>
+    <sheet name="desired ROI" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Game window Size</t>
   </si>
@@ -1062,6 +1063,445 @@
   </si>
   <si>
     <t>great</t>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>desired_roi_points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>550</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-right</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-right</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-left (closer to 400px)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>750</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-right (closer to 780px)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-left</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
   </si>
 </sst>
 </file>
@@ -1375,6 +1815,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,6 +1848,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1415,33 +1882,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1768,10 +2208,10 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1779,58 +2219,58 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="24"/>
       <c r="M2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="K4" s="20" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="K4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="23"/>
       <c r="M4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="K6" s="20" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="K6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="21"/>
+      <c r="L6" s="23"/>
       <c r="M6" t="s">
         <v>12</v>
       </c>
@@ -1950,21 +2390,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C393B0EC-DECC-4367-BE98-AD590FB012B4}">
   <dimension ref="B3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1980,10 +2420,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
@@ -1993,8 +2433,8 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -2005,8 +2445,8 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
       <c r="K6" t="s">
         <v>36</v>
       </c>
@@ -2020,8 +2460,8 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -2032,8 +2472,8 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
@@ -2044,8 +2484,8 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
@@ -2070,91 +2510,91 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="K14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H22" t="s">
@@ -2165,17 +2605,17 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2193,4 +2633,87 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19C6A92-160B-4103-8D9F-1E10BB16CA6B}">
+  <dimension ref="B7:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Metopen/Book1.xlsx
+++ b/Metopen/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thinkin in programming\Metopen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98681CCC-F2F4-49BB-9D7C-30ADC719A093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB30463-E2BA-4A68-936C-279D0F868770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11775" activeTab="3" xr2:uid="{252DCF02-E3DA-4351-BF14-229351A9F4F4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Game window Size</t>
   </si>
@@ -1502,6 +1502,537 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <r>
+      <t>monitor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"top"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: 300, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"left"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"width"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: 400, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"height"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 300}</t>
+    </r>
+  </si>
+  <si>
+    <t>superb</t>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>137</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-left (274/2, 254/2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>258</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-right (517/2, 254/2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>374</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>156</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-right (748/2, 313/2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>156</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-left (13/2, 313/2)</t>
+    </r>
+  </si>
+  <si>
+    <t>400 * 300</t>
+  </si>
+  <si>
+    <r>
+      <t>            [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">],     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-left (100/2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Top-right (700/2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-right (700/2, 600/2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Bottom-left (100/2, 600/2)</t>
+    </r>
+  </si>
+  <si>
+    <t>meh</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2732,7 @@
   <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,8 +2811,23 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="L8" s="3"/>
+      <c r="B8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="K8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -2333,7 +2879,9 @@
       <c r="L18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B6:I6"/>
@@ -2388,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C393B0EC-DECC-4367-BE98-AD590FB012B4}">
-  <dimension ref="B3:K25"/>
+  <dimension ref="B3:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,6 +3164,42 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2637,10 +3221,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19C6A92-160B-4103-8D9F-1E10BB16CA6B}">
-  <dimension ref="B7:I22"/>
+  <dimension ref="B7:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,34 +3267,70 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Metopen/Book1.xlsx
+++ b/Metopen/Book1.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thinkin in programming\Metopen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB30463-E2BA-4A68-936C-279D0F868770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643327A3-2D85-497B-9BD4-2E5041FAFE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11775" activeTab="3" xr2:uid="{252DCF02-E3DA-4351-BF14-229351A9F4F4}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="6" xr2:uid="{252DCF02-E3DA-4351-BF14-229351A9F4F4}"/>
   </bookViews>
   <sheets>
     <sheet name="game window size" sheetId="1" r:id="rId1"/>
     <sheet name="sliding window Size" sheetId="2" r:id="rId2"/>
     <sheet name="ROI" sheetId="3" r:id="rId3"/>
     <sheet name="desired ROI" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Matrik kualitatif" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="138">
   <si>
     <t>Game window Size</t>
   </si>
@@ -2033,13 +2036,294 @@
   </si>
   <si>
     <t>meh</t>
+  </si>
+  <si>
+    <t>Pixel</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>R_norm</t>
+  </si>
+  <si>
+    <t>G_norm</t>
+  </si>
+  <si>
+    <t>B_norm</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>H (derajat)</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>120°</t>
+  </si>
+  <si>
+    <t>240°</t>
+  </si>
+  <si>
+    <t>60°</t>
+  </si>
+  <si>
+    <t>180°</t>
+  </si>
+  <si>
+    <t>300°</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Kiri Atas (x,y)</t>
+  </si>
+  <si>
+    <t>Kanan Atas (x,y)</t>
+  </si>
+  <si>
+    <t>Kanan Bawah (x,y)</t>
+  </si>
+  <si>
+    <t>Kiri Bawah (x,y)</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>800x600</t>
+  </si>
+  <si>
+    <t>(274, 254)</t>
+  </si>
+  <si>
+    <t>(517, 254)</t>
+  </si>
+  <si>
+    <t>(748, 313)</t>
+  </si>
+  <si>
+    <t>(13, 313)</t>
+  </si>
+  <si>
+    <t>RoI awal</t>
+  </si>
+  <si>
+    <t>(200, 254)</t>
+  </si>
+  <si>
+    <t>(10, 313)</t>
+  </si>
+  <si>
+    <t>Perluasan untuk menangkap marka pada tikungan</t>
+  </si>
+  <si>
+    <t>400x300</t>
+  </si>
+  <si>
+    <t>(137, 127)</t>
+  </si>
+  <si>
+    <t>(258, 127)</t>
+  </si>
+  <si>
+    <t>(374, 156)</t>
+  </si>
+  <si>
+    <t>(6, 156)</t>
+  </si>
+  <si>
+    <t>Disesuaikan untuk resolusi lebih rendah</t>
+  </si>
+  <si>
+    <t>Resolusi</t>
+  </si>
+  <si>
+    <t> (200, 254),  # Top-left (moved left)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#     (600, 254),  # Top-right (moved right)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#     (790, 313),  # Bottom-right (moved right)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#     (10, 313)    # Bottom-left (moved left)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># ])</t>
+    </r>
+  </si>
+  <si>
+    <t>(600, 254)</t>
+  </si>
+  <si>
+    <t>(790, 313)</t>
+  </si>
+  <si>
+    <t>Track</t>
+  </si>
+  <si>
+    <t>Jumlah Belokan Ringan</t>
+  </si>
+  <si>
+    <t>Jumlah Belokan Tajam</t>
+  </si>
+  <si>
+    <t>Belokan Ringan Berhasil Dilalui</t>
+  </si>
+  <si>
+    <t>Belokan Tajam Berhasil Dilalui</t>
+  </si>
+  <si>
+    <t>Jarak Track (m)</t>
+  </si>
+  <si>
+    <t>Jarak Sebelum Menabrak (m)</t>
+  </si>
+  <si>
+    <t>Rasio Keberhasilan</t>
+  </si>
+  <si>
+    <t>Ukuran Frame Permainan</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>400 x 300</t>
+  </si>
+  <si>
+    <t>800 x 600</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1920 x 1080</t>
+  </si>
+  <si>
+    <t>Konversi Warna</t>
+  </si>
+  <si>
+    <t>Performa</t>
+  </si>
+  <si>
+    <t>Grasyscale</t>
+  </si>
+  <si>
+    <t>HSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JABATAN   </t>
+  </si>
+  <si>
+    <t>NAMA LENGKAP</t>
+  </si>
+  <si>
+    <t>TANDA TANGAN</t>
+  </si>
+  <si>
+    <t>Ketua</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>.....................</t>
+  </si>
+  <si>
+    <t>Sekretaris</t>
+  </si>
+  <si>
+    <t>Anggota</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2097,6 +2381,58 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2106,7 +2442,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2315,11 +2651,362 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2352,6 +3039,214 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2364,18 +3259,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2414,6 +3297,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2739,10 +3649,10 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2750,58 +3660,58 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="24"/>
+      <c r="L2" s="90"/>
       <c r="M2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="K4" s="22" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="K4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="85"/>
       <c r="M4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="85"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="K6" s="22" t="s">
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="K6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="85"/>
       <c r="M6" t="s">
         <v>12</v>
       </c>
@@ -2811,20 +3721,20 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="K8" s="22" t="s">
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="K8" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="23"/>
+      <c r="L8" s="85"/>
       <c r="M8" t="s">
         <v>11</v>
       </c>
@@ -2945,14 +3855,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
@@ -2968,10 +3878,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
@@ -2981,8 +3891,8 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -2993,8 +3903,8 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
       <c r="K6" t="s">
         <v>36</v>
       </c>
@@ -3008,8 +3918,8 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -3020,8 +3930,8 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
@@ -3032,8 +3942,8 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
@@ -3058,78 +3968,78 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
       <c r="K14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
@@ -3223,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19C6A92-160B-4103-8D9F-1E10BB16CA6B}">
   <dimension ref="B7:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,4 +4246,1118 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88D5D9-EA78-4708-A794-0982AF393E14}">
+  <dimension ref="B1:N30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="24">
+        <v>255</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
+        <v>255</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34">
+        <v>255</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="32">
+        <v>255</v>
+      </c>
+      <c r="D6" s="33">
+        <v>255</v>
+      </c>
+      <c r="E6" s="34">
+        <v>0</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>255</v>
+      </c>
+      <c r="E7" s="34">
+        <v>255</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="37">
+        <v>255</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0</v>
+      </c>
+      <c r="E8" s="39">
+        <v>255</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L29" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L30" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5261BF5F-1DAB-448F-9D40-2982AFFF66C2}">
+  <dimension ref="B2:P48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31:M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="54">
+        <v>1</v>
+      </c>
+      <c r="C4" s="55">
+        <v>2</v>
+      </c>
+      <c r="D4" s="55">
+        <v>3</v>
+      </c>
+      <c r="E4" s="55">
+        <v>2</v>
+      </c>
+      <c r="F4" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5" s="55">
+        <v>1</v>
+      </c>
+      <c r="D5" s="55">
+        <v>1</v>
+      </c>
+      <c r="E5" s="55">
+        <v>1</v>
+      </c>
+      <c r="F5" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="54">
+        <v>3</v>
+      </c>
+      <c r="C6" s="55">
+        <v>2</v>
+      </c>
+      <c r="D6" s="55">
+        <v>1</v>
+      </c>
+      <c r="E6" s="55">
+        <v>2</v>
+      </c>
+      <c r="F6" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="54">
+        <v>1</v>
+      </c>
+      <c r="C10" s="55">
+        <v>800</v>
+      </c>
+      <c r="D10" s="55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="54">
+        <v>2</v>
+      </c>
+      <c r="C11" s="55">
+        <v>200</v>
+      </c>
+      <c r="D11" s="55">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="54">
+        <v>3</v>
+      </c>
+      <c r="C12" s="55">
+        <v>300</v>
+      </c>
+      <c r="D12" s="55">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="56">
+        <v>1</v>
+      </c>
+      <c r="G16" s="58">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="56">
+        <v>2</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="N17" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="56">
+        <v>3</v>
+      </c>
+      <c r="G18" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="N18" s="104"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+    </row>
+    <row r="19" spans="3:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="55">
+        <v>2</v>
+      </c>
+      <c r="N21" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="O21" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" s="55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="62"/>
+    </row>
+    <row r="30" spans="3:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="62"/>
+    </row>
+    <row r="41" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="7:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="G42" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G43" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" s="74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G44" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="L44" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G45" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="L45" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="M45" s="74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G46" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="L46" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G47" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="L47" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" s="74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="M48" s="77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7026A262-0301-479C-8452-936910B5F128}">
+  <dimension ref="B2:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="78">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="80">
+        <v>0</v>
+      </c>
+      <c r="D3" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="78">
+        <v>-2</v>
+      </c>
+      <c r="C4" s="78">
+        <v>0</v>
+      </c>
+      <c r="D4" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="79">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="81">
+        <v>0</v>
+      </c>
+      <c r="D5" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="65">
+        <v>1</v>
+      </c>
+      <c r="C8" s="66">
+        <v>2</v>
+      </c>
+      <c r="D8" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="67">
+        <v>0</v>
+      </c>
+      <c r="C9" s="68">
+        <v>0</v>
+      </c>
+      <c r="D9" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="67">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="68">
+        <v>-2</v>
+      </c>
+      <c r="D10" s="68">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="111" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>